--- a/output/BM1/CIBERSORT.xlsx
+++ b/output/BM1/CIBERSORT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>B cell</t>
   </si>
@@ -94,7 +94,7 @@
     <t>ASGR2</t>
   </si>
   <si>
-    <t>PGGHG</t>
+    <t>ATHL1</t>
   </si>
   <si>
     <t>ATP8B4</t>
@@ -379,12 +379,6 @@
     <t>ELANE</t>
   </si>
   <si>
-    <t>ADGRE1</t>
-  </si>
-  <si>
-    <t>ADGRE2</t>
-  </si>
-  <si>
     <t>EPB41</t>
   </si>
   <si>
@@ -400,16 +394,13 @@
     <t>ETV3</t>
   </si>
   <si>
-    <t>FCMR</t>
-  </si>
-  <si>
     <t>FAM198B</t>
   </si>
   <si>
     <t>FAM212B</t>
   </si>
   <si>
-    <t>RIPOR2</t>
+    <t>FAM65B</t>
   </si>
   <si>
     <t>FASLG</t>
@@ -583,7 +574,7 @@
     <t>KCNA3</t>
   </si>
   <si>
-    <t>RUBCNL</t>
+    <t>KIAA0226L</t>
   </si>
   <si>
     <t>KIR3DL2</t>
@@ -1415,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4077,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4086,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4100,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4109,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4123,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4132,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4166,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4189,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4212,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4247,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4258,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4284,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4293,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4301,13 +4292,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4324,10 +4315,10 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4336,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4347,7 +4338,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4362,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4373,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4396,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -4416,7 +4407,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4425,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4448,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4462,7 +4453,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4471,13 +4462,13 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4491,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -4514,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4523,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4540,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -4560,16 +4551,16 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4589,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4600,7 +4591,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4615,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4635,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -4652,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4681,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4698,16 +4689,16 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4721,16 +4712,16 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4738,7 +4729,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4767,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -4776,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4790,16 +4781,16 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4813,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4842,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -4882,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -4905,16 +4896,16 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4931,13 +4922,13 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4945,7 +4936,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4957,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4968,13 +4959,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4991,7 +4982,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5000,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5014,7 +5005,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5023,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -5060,10 +5051,10 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -5106,7 +5097,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5115,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -5132,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -5144,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5161,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5178,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -5210,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -5221,7 +5212,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -5236,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5244,16 +5235,16 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -5267,7 +5258,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -5279,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -5290,16 +5281,16 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -5313,19 +5304,19 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5336,19 +5327,19 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -5362,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -5385,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5411,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -5428,13 +5419,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -5451,22 +5442,22 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5486,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -5520,7 +5511,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -5535,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5543,7 +5534,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -5558,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5601,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5612,7 +5603,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -5624,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5635,7 +5626,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -5647,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5673,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5716,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -5730,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5759,10 +5750,10 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -5799,19 +5790,19 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5828,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -5871,16 +5862,16 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5900,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -5917,16 +5908,16 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5934,16 +5925,16 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -5963,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -5972,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6003,7 +5994,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -6015,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6026,22 +6017,22 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6058,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -6072,7 +6063,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -6084,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6095,7 +6086,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -6107,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -6118,13 +6109,13 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -6167,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -6179,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6187,7 +6178,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -6202,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6210,7 +6201,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -6225,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6236,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -6248,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6262,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -6271,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6288,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6308,16 +6299,16 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6325,13 +6316,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -6354,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -6371,16 +6362,16 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216">
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -6394,19 +6385,19 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6423,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -6440,10 +6431,10 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -6475,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -6492,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6509,10 +6500,10 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -6538,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -6558,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <v>1</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6578,7 +6569,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -6590,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6607,13 +6598,13 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6627,19 +6618,19 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6656,13 +6647,13 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6676,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6693,7 +6684,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -6705,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6742,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6762,7 +6753,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -6777,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6794,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6811,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -6831,7 +6822,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -6846,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6860,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6886,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6906,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -6969,13 +6960,13 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -6984,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6998,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -7007,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7021,16 +7012,16 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7038,7 +7029,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -7053,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7087,19 +7078,19 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7107,7 +7098,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -7122,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7142,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7156,19 +7147,19 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7176,7 +7167,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -7191,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7208,10 +7199,10 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7225,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -7237,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7245,7 +7236,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -7257,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7277,10 +7268,10 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7294,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -7303,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7340,19 +7331,19 @@
         <v>0</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7360,7 +7351,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -7389,16 +7380,16 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7409,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7441,10 +7432,10 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7458,16 +7449,16 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7475,13 +7466,13 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264">
         <v>0</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -7490,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7524,19 +7515,19 @@
         <v>0</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7544,7 +7535,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -7567,7 +7558,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -7576,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7593,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7619,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -7642,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -7662,13 +7653,13 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7697,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7711,16 +7702,16 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7760,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -7786,10 +7777,10 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7800,13 +7791,13 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7826,16 +7817,16 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7843,7 +7834,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -7855,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -7912,7 +7903,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -7924,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7935,13 +7926,13 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284">
         <v>0</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -7950,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7981,7 +7972,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -7993,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8004,7 +7995,7 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -8050,7 +8041,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -8059,13 +8050,13 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8076,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8099,19 +8090,19 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8125,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -8145,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -8154,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -8165,16 +8156,16 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294">
         <v>0</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8188,13 +8179,13 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295">
         <v>0</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -8211,7 +8202,7 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -8220,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -8234,7 +8225,7 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -8249,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8257,13 +8248,13 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -8309,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -8326,10 +8317,10 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -8349,13 +8340,13 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302">
         <v>0</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -8378,16 +8369,16 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8395,13 +8386,13 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304">
         <v>0</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -8410,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8418,13 +8409,13 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -8447,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306">
         <v>0</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -8476,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8487,16 +8478,16 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -8519,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -8533,7 +8524,7 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -8545,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -8556,16 +8547,16 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -8579,16 +8570,16 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -8602,10 +8593,10 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -8617,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="G313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -8625,7 +8616,7 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -8634,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8648,13 +8639,13 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -8674,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -8694,7 +8685,7 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -8703,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -8723,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -8732,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8752,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -8763,7 +8754,7 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -8775,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -8792,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -8801,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -8821,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -8847,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8861,13 +8852,13 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E324">
         <v>0</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G324">
         <v>0</v>
@@ -8910,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -8936,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8953,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8976,10 +8967,10 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -8993,7 +8984,7 @@
         <v>335</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -9008,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9022,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -9045,16 +9036,16 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332">
         <v>0</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9120,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -9131,7 +9122,7 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -9143,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -9154,7 +9145,7 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -9169,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9177,7 +9168,7 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -9192,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9212,78 +9203,9 @@
         <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-      <c r="C340">
-        <v>0</v>
-      </c>
-      <c r="D340">
-        <v>0</v>
-      </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
-      <c r="F340">
-        <v>0</v>
-      </c>
-      <c r="G340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-      <c r="C341">
-        <v>0</v>
-      </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-      <c r="G341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="A342" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-      <c r="C342">
-        <v>0</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
-      <c r="F342">
-        <v>0</v>
-      </c>
-      <c r="G342">
         <v>1</v>
       </c>
     </row>
